--- a/Rotas 01.csv.xlsx
+++ b/Rotas 01.csv.xlsx
@@ -5,10 +5,10 @@
   <workbookPr date1904="1"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://attendservice-my.sharepoint.com/personal/kaue_silva_attendservice_com_br/Documents/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://attendservice-my.sharepoint.com/personal/kaue_silva_attendservice_com_br/Documents/Imagens/site gean/register_call/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="8" documentId="8_{10B537AC-1906-45B8-837C-A817D39E76CD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{218474A4-D4BE-4586-A710-064E460D8FD0}"/>
+  <xr:revisionPtr revIDLastSave="11" documentId="8_{10B537AC-1906-45B8-837C-A817D39E76CD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{10F016A5-D656-4303-849D-1E20618B1AD0}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{D44EF447-21AF-4CB4-B612-628E12755738}"/>
   </bookViews>
@@ -856,10 +856,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1182,7 +1178,7 @@
   <dimension ref="A1:J23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+      <selection activeCell="I13" sqref="I13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="19.8" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -1191,7 +1187,10 @@
     <col min="2" max="2" width="67.6640625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="31.33203125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="6.6640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="27.88671875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.21875" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="10.33203125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="24.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="19.8" customHeight="1" x14ac:dyDescent="0.3">
